--- a/Imagine-Bean/evidence.xlsx
+++ b/Imagine-Bean/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,43 +91,199 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>84BA88E5719AB72AF778AB2D143F0A72BCE5AD62639F688BB4C3DC1190F3D3EA</t>
+  </si>
+  <si>
+    <t>bean</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>91CA1AF561120C1FA5AA3DA3ED6E8EABFD6F827C467E19D9D3E2417FE0B79BBF</t>
+  </si>
+  <si>
+    <t>beana2</t>
+  </si>
+  <si>
+    <t>6B89C89EC9357D02A115E7CD92E684BB035F5FCEE8FD2B02FEDDA86E30D42C15</t>
+  </si>
+  <si>
+    <t>beana2copy</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>F29BE4761837F73AE0189215411CF274BDD2EAFFC96B01F35F286831E909757B</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>34CDCB4F143DEB076AE739C638106DCE26509550758A493B7F492CB46995F70B</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>C6DD14DF7669CF047B75F06F2241B995DAE7ECE5B2C9CC52AC719A649AEAEF4F</t>
+  </si>
+  <si>
+    <t>CAE6F6A07CE1DD18F93131A28D8FFC02C8FFA1D78E8FE459DA75C923A88A4F13</t>
+  </si>
+  <si>
+    <t>ibc/FA115AD2B2082F1952EA67259D6D7138A4B973AEE1AE5228A051C383B0F91C68</t>
+  </si>
+  <si>
+    <t>flowa1</t>
+  </si>
+  <si>
+    <t>ibc/3380D486892A17FCD0CA626E73A0EEC0DECCE16C0D7BCDD3D28F1384E2C4EEDA</t>
+  </si>
+  <si>
+    <t>flowa2</t>
+  </si>
+  <si>
+    <t>ibc/FB085E180750FE8AC521B32A275CDEF3287A5A7728ABA8669B98840F6995FE23</t>
+  </si>
+  <si>
+    <t>flowa3</t>
+  </si>
+  <si>
+    <t>ibc/E16C47F5CD813E9D6AC7B8A778003FE4B6BD58FFF39759E694DC55FEA854244D</t>
+  </si>
+  <si>
+    <t>flowa4</t>
+  </si>
+  <si>
+    <t>ibc/24C662A011CEA310FC4002E566314446DA6839437CFC35DF162DFE97E3B5A05E</t>
+  </si>
+  <si>
+    <t>flowa5</t>
+  </si>
+  <si>
+    <t>ibc/63DE03AFAE1E330F7258C2DF24715E317A65575B781997D44C2481C81E4A647B</t>
+  </si>
+  <si>
+    <t>flowa6</t>
+  </si>
+  <si>
+    <t>1D0D4AFAEC9B5A176F81C42D05461CCA3B5463C032A05FAC9E0F2680BF741A67</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>5D3A51E7DCBEB2FEBC1E4E1C4BEE68C69FFB6D70A8B468242203A58645856F75</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>5F2D348B6AD3522FB4A5312F5EBBD0785AFCED3BA75D301D0F9F90B9F5E5DC70</t>
+  </si>
+  <si>
+    <t>894E0FE076EF7C1735CC7F30990B7E7FA5B6803081ABFA70CD1AF681BED51F21</t>
+  </si>
+  <si>
+    <t>505C5BE77128F3EA1FAE3B6FE2F62F6B0DB35348B5F1E72357CE6073C56A7676</t>
+  </si>
+  <si>
+    <t>CC484FEB137FE2F23A1A703CE6CCE0C0AF078F99989AC4A11A6B975EA6BE7FB6</t>
+  </si>
+  <si>
+    <t>7BD380BFD6046BCF80E9DA14A0934BC916910A247EBF3BAF7C13B04F468B872F</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>A416E81C3136429F719B8328F0E7BD5CFD98622E0ABF3B9F59387BFF25DF1115</t>
+  </si>
+  <si>
+    <t>50ED10666DFD313618E4D8B3BB9DBFA6A992797A7D8BE751D9D9495BC1C3E247</t>
+  </si>
+  <si>
+    <t>75723B7CE21E81C8BB9BFDBB73C4E3D3DC8C04651E6309F1BCB79D1699854E8D</t>
+  </si>
+  <si>
+    <t>789A24ACF01AE41FEEFB9732A5969275841B0AC3481227E161A5F7E52A6B65BB</t>
+  </si>
+  <si>
+    <t>290AFA8E275D38080300B95999A09B92838F4C91E3B3AA59B5A99E89D87F8678</t>
+  </si>
+  <si>
+    <t>8F00B9C6D5091A01E39F4E02A6DA1B3E73E4587CA8244660DEB0D950BB7BA0D9</t>
+  </si>
+  <si>
+    <t>954C1913C738D35B69D5E8DC4511AEE7CD699DF4E6E6311FA678DE4100833773</t>
+  </si>
+  <si>
+    <t>2ACD4A46A129E70EF19880254F628C6B424B073968E0DDC9FE2EDB0F134C1FDE</t>
+  </si>
+  <si>
+    <t>A3625ADB669482F1DD5644E88C0C44DCE20E14A0597783034D3D535F757CF56E</t>
+  </si>
+  <si>
+    <t>5919FC848837A64CDA3EAD7FBEC38D6BBC30FA2E298D1A77F6DE241503E45C1F</t>
+  </si>
+  <si>
+    <t>898AC131D3DEE5D45FCB00D6FE57F6F4053F085D1B9323BF0F9343ADDBEBB854</t>
+  </si>
+  <si>
+    <t>5E11B8E02681BC3F2CC39B6AB5A9C99BC4A6E6BF584EFDA66AF096AC07C1C912</t>
+  </si>
+  <si>
+    <t>F1DF412B7B415DD76718393ABD69BBFE7BB88D2866B6AE976EE212624AD68381</t>
+  </si>
+  <si>
+    <t>31C095D404F51ED9C00FFE6CD3806795F280C40C58EA3205C0506B0B51349EAB</t>
+  </si>
+  <si>
+    <t>AB24B665FB5230C6D56A7D18D17CFECA94453C7358DB65B281E6C017EB899630</t>
+  </si>
+  <si>
+    <t>905A739E385C84452DAD42FD03C610EC5FDF8A60649C9BA7CA42FFC6189D782A</t>
+  </si>
+  <si>
+    <t>69563540F86331301CD311C050EF0FAABA4F787E4FA0C4D559747B19FBCE6C22</t>
+  </si>
+  <si>
+    <t>58B648FB5203735C4EB77DA2B42C9425F4051EC13B0CD27D71E13E51DF8D2AFA</t>
+  </si>
+  <si>
+    <t>03216C49E3B7AC1DFD8038A34E613D97B5CBEC31B8FF0187DC292CB05F760A54</t>
+  </si>
+  <si>
+    <t>D3A792E53BE74F41892885A6496E90297EC1F9EBA0F8BA1BA43E79EE948436ED</t>
+  </si>
+  <si>
+    <t>50E1AEB469B1370E28DD688D728B529208C44B947B6D126C3AF864F460B74726</t>
+  </si>
+  <si>
+    <t>31AABCEED0DDCFE6E4B98DA7A0B9B6CE415F72571C27B331AE816E951D4B35E5</t>
+  </si>
+  <si>
+    <t>FDEA15CFCD9AB834BD6F942D0B79AC857DD0A73B39B2BD91B1C009B591AD6464</t>
+  </si>
+  <si>
+    <t>49280321C6FF67AD1A7C39373C0C5361FA0BEAB2296CF09A7D0C4BB7E5179209</t>
+  </si>
+  <si>
+    <t>2E4DE3632527FD077C96B54C88C337486A4153E31B81CA89F05179624A6D8B37</t>
+  </si>
+  <si>
+    <t>A12CD0FB84C6EE9079A5465673A482E9C499BA7C792C1CCF4CB5FE9CCC7BF7BC</t>
+  </si>
+  <si>
+    <t>16A406A5DEA1C7DCA28568596B7FBE9FDCA1819746088D99087FD5275E9DB42E</t>
+  </si>
+  <si>
+    <t>F7ED380E86F0399B0DB86E22B1C7547BE411463147BF17BB5283FBFAF9E9A074</t>
+  </si>
+  <si>
+    <t>B84C5DA60224B8DF14DB906D1F33E17F7DE683767BD405D7DAD8DFFB7DC24AC1</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1374,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,10 +1393,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1276,10 +1432,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1452,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1471,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1491,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1510,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1527,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1544,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1590,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1607,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1653,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1670,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1716,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1733,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1779,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1796,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1842,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1859,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1908,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1943,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1960,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2022,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2039,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1819,12 +2119,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1856,12 +2156,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2193,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2215,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1930,12 +2230,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2249,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2274,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2308,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2329,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2381,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2412,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2433,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2464,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2486,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2517,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E23" sqref="D16 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2536,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2556,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2264,10 +2575,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
